--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3103.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3103.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.180698281238479</v>
+        <v>1.235664248466492</v>
       </c>
       <c r="B1">
-        <v>2.488733617094142</v>
+        <v>2.310633897781372</v>
       </c>
       <c r="C1">
-        <v>2.678064989743679</v>
+        <v>3.523652315139771</v>
       </c>
       <c r="D1">
-        <v>3.681615081894449</v>
+        <v>3.878966808319092</v>
       </c>
       <c r="E1">
-        <v>1.903508955698097</v>
+        <v>1.033170700073242</v>
       </c>
     </row>
   </sheetData>
